--- a/biology/Zoologie/Alvinocaris/Alvinocaris.xlsx
+++ b/biology/Zoologie/Alvinocaris/Alvinocaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alvinocaris est un genre de crevettes abyssales vivant au voisinage des sources hydrothermales, des suintements froids et des bassins de saumure. La première espèce de crevette liée aux environnements réduits de profondeur fut décrite dans ce genre en 1982.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À l'heure actuelle, le genre comporte onze espèces au moins[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>À l'heure actuelle, le genre comporte onze espèces au moins, :
 Alvinocaris brevitelsonis Kikuchi &amp; Hashimoto, 2000
 Alvinocaris dissimilis Komai &amp; Segonzac, 2005
 Alvinocaris komaii Zelnio &amp; Hourdez, 2009
